--- a/docs/macro/base-infras-invest/全国基础设施投资-2018-2023.xlsx
+++ b/docs/macro/base-infras-invest/全国基础设施投资-2018-2023.xlsx
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -123,23 +123,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,14 +151,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -176,24 +159,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,10 +197,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,37 +252,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,13 +286,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +376,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +400,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,37 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,97 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,23 +477,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,24 +539,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,13 +557,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,148 +577,148 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -821,6 +821,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>基建投资增速</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -830,25 +854,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1610,6 +1615,44 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2240,8 +2283,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2250,7 +2293,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="512445" y="2353945"/>
-        <a:ext cx="10066655" cy="3898265"/>
+        <a:ext cx="10066655" cy="5294630"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2526,7 +2569,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="6"/>

--- a/docs/macro/base-infras-invest/全国基础设施投资-2018-2023.xlsx
+++ b/docs/macro/base-infras-invest/全国基础设施投资-2018-2023.xlsx
@@ -79,9 +79,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -123,7 +123,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,8 +136,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,6 +176,21 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -160,25 +206,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,8 +221,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,7 +245,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,47 +259,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,12 +280,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -298,7 +292,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,19 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,133 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,8 +477,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,8 +501,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,21 +561,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -547,178 +571,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1493,6 +1493,9 @@
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2567,9 +2570,9 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="6"/>
@@ -2646,7 +2649,9 @@
       <c r="F5" s="4">
         <v>0.085</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>0.088</v>
+      </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">

--- a/docs/macro/base-infras-invest/全国基础设施投资-2018-2023.xlsx
+++ b/docs/macro/base-infras-invest/全国基础设施投资-2018-2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27100" windowHeight="14260" tabRatio="923"/>
+    <workbookView windowWidth="27860" windowHeight="14180" tabRatio="923"/>
   </bookViews>
   <sheets>
     <sheet name="全国基础设施投资" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -123,7 +123,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,21 +144,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -174,14 +159,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -189,8 +221,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -213,62 +264,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -280,7 +280,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,37 +304,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,19 +340,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,79 +412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,7 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,30 +477,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -511,7 +487,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,6 +522,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -561,13 +557,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,149 +576,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1496,6 +1496,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2572,7 +2575,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="6"/>
@@ -2672,7 +2675,9 @@
       <c r="F6" s="3">
         <v>0.065</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>0.085</v>
+      </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">

--- a/docs/macro/base-infras-invest/全国基础设施投资-2018-2023.xlsx
+++ b/docs/macro/base-infras-invest/全国基础设施投资-2018-2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27860" windowHeight="14180" tabRatio="923"/>
+    <workbookView windowWidth="28520" windowHeight="13500" tabRatio="923"/>
   </bookViews>
   <sheets>
     <sheet name="全国基础设施投资" sheetId="1" r:id="rId1"/>
@@ -79,8 +79,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -144,16 +144,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,6 +169,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,11 +190,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,8 +219,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,59 +264,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,7 +286,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,43 +340,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,19 +358,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,36 +382,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,13 +394,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,31 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,6 +488,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,15 +554,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -542,32 +563,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,143 +576,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1499,6 +1499,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2575,7 +2578,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="6"/>
@@ -2698,7 +2701,9 @@
       <c r="F7" s="3">
         <v>0.067</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">

--- a/docs/macro/base-infras-invest/全国基础设施投资-2018-2023.xlsx
+++ b/docs/macro/base-infras-invest/全国基础设施投资-2018-2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28520" windowHeight="13500" tabRatio="923"/>
+    <workbookView windowWidth="27100" windowHeight="14420" tabRatio="923"/>
   </bookViews>
   <sheets>
     <sheet name="全国基础设施投资" sheetId="1" r:id="rId1"/>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -130,69 +130,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -205,7 +146,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,6 +176,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -235,7 +198,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,7 +234,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,13 +270,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -277,162 +277,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -448,7 +292,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +418,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,17 +492,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +516,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -537,21 +561,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -562,160 +571,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1502,6 +1502,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2302,7 +2305,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="512445" y="2353945"/>
-        <a:ext cx="10066655" cy="5294630"/>
+        <a:ext cx="10066655" cy="5782310"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2578,19 +2581,19 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.9910714285714" style="1" customWidth="1"/>
     <col min="2" max="6" width="17.3571428571429" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.5267857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1"/>
-    <row r="2" customHeight="1"/>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="1" ht="12" customHeight="1"/>
+    <row r="2" ht="12" customHeight="1"/>
+    <row r="3" ht="12" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" ht="12" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2636,7 +2639,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" ht="12" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2659,7 +2662,7 @@
         <v>0.088</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" ht="12" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2682,7 +2685,7 @@
         <v>0.085</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" ht="12" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2705,7 +2708,7 @@
         <v>0.075</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
+    <row r="8" ht="12" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2724,9 +2727,11 @@
       <c r="F8" s="3">
         <v>0.071</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:7">
+      <c r="G8" s="3">
+        <v>0.072</v>
+      </c>
+    </row>
+    <row r="9" ht="12" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2747,7 +2752,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" customHeight="1" spans="1:7">
+    <row r="10" ht="12" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2768,7 +2773,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" customHeight="1" spans="1:7">
+    <row r="11" ht="12" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2789,7 +2794,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" customHeight="1" spans="1:7">
+    <row r="12" ht="12" customHeight="1" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2810,7 +2815,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" customHeight="1" spans="1:7">
+    <row r="13" ht="12" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2831,7 +2836,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" customHeight="1" spans="1:7">
+    <row r="14" ht="12" customHeight="1" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -2852,7 +2857,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" customHeight="1" spans="2:7">
+    <row r="15" ht="12" customHeight="1" spans="2:7">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2860,7 +2865,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" customHeight="1" spans="2:7">
+    <row r="16" ht="12" customHeight="1" spans="2:7">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2868,7 +2873,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" customHeight="1" spans="2:7">
+    <row r="17" ht="12" customHeight="1" spans="2:7">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2876,7 +2881,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" customHeight="1" spans="2:7">
+    <row r="18" ht="12" customHeight="1" spans="2:7">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2884,7 +2889,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" customHeight="1" spans="2:7">
+    <row r="19" ht="12" customHeight="1" spans="2:7">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2892,7 +2897,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" customHeight="1" spans="2:7">
+    <row r="20" ht="12" customHeight="1" spans="2:7">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2900,7 +2905,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" customHeight="1" spans="2:7">
+    <row r="21" ht="12" customHeight="1" spans="2:7">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2908,7 +2913,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" customHeight="1" spans="2:7">
+    <row r="22" ht="12" customHeight="1" spans="2:7">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2916,7 +2921,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" customHeight="1" spans="2:7">
+    <row r="23" ht="12" customHeight="1" spans="2:7">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2924,7 +2929,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" customHeight="1" spans="2:7">
+    <row r="24" ht="12" customHeight="1" spans="2:7">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2932,7 +2937,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" customHeight="1" spans="2:7">
+    <row r="25" ht="12" customHeight="1" spans="2:7">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2940,7 +2945,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" customHeight="1" spans="2:7">
+    <row r="26" ht="12" customHeight="1" spans="2:7">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -2948,7 +2953,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" customHeight="1" spans="2:7">
+    <row r="27" ht="12" customHeight="1" spans="2:7">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -2956,7 +2961,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" customHeight="1" spans="2:7">
+    <row r="28" ht="12" customHeight="1" spans="2:7">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -2964,7 +2969,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" customHeight="1" spans="2:7">
+    <row r="29" ht="12" customHeight="1" spans="2:7">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -2972,7 +2977,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" customHeight="1" spans="2:7">
+    <row r="30" ht="12" customHeight="1" spans="2:7">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -2980,7 +2985,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" customHeight="1" spans="2:7">
+    <row r="31" ht="12" customHeight="1" spans="2:7">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -2988,7 +2993,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" customHeight="1" spans="2:7">
+    <row r="32" ht="12" customHeight="1" spans="2:7">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -2996,7 +3001,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" customHeight="1" spans="2:7">
+    <row r="33" ht="12" customHeight="1" spans="2:7">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -3004,7 +3009,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" customHeight="1" spans="2:7">
+    <row r="34" ht="12" customHeight="1" spans="2:7">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3012,7 +3017,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" customHeight="1" spans="2:7">
+    <row r="35" ht="12" customHeight="1" spans="2:7">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3020,7 +3025,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" customHeight="1" spans="2:7">
+    <row r="36" ht="12" customHeight="1" spans="2:7">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -3028,7 +3033,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" customHeight="1" spans="2:7">
+    <row r="37" ht="12" customHeight="1" spans="2:7">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3036,7 +3041,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" customHeight="1" spans="2:7">
+    <row r="38" ht="12" customHeight="1" spans="2:7">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3044,7 +3049,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" customHeight="1" spans="2:7">
+    <row r="39" ht="12" customHeight="1" spans="2:7">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3052,7 +3057,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" customHeight="1" spans="2:7">
+    <row r="40" ht="12" customHeight="1" spans="2:7">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -3060,7 +3065,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" customHeight="1" spans="2:7">
+    <row r="41" ht="12" customHeight="1" spans="2:7">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3068,7 +3073,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" customHeight="1" spans="2:7">
+    <row r="42" ht="12" customHeight="1" spans="2:7">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>

--- a/docs/macro/base-infras-invest/全国基础设施投资-2018-2023.xlsx
+++ b/docs/macro/base-infras-invest/全国基础设施投资-2018-2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27100" windowHeight="14420" tabRatio="923"/>
+    <workbookView windowWidth="26860" windowHeight="14360" tabRatio="923"/>
   </bookViews>
   <sheets>
     <sheet name="全国基础设施投资" sheetId="1" r:id="rId1"/>
@@ -76,12 +76,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -122,15 +122,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,55 +170,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,50 +200,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -270,6 +230,46 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -280,73 +280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,13 +298,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,37 +334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,13 +352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,13 +376,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,11 +474,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,36 +503,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +537,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -576,151 +576,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -729,7 +729,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -747,55 +747,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_新闻稿附表 8" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
     <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规_新闻稿附表 8" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1505,6 +1505,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2581,7 +2584,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -2750,7 +2753,9 @@
       <c r="F9" s="4">
         <v>0.074</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4">
+        <v>0.068</v>
+      </c>
     </row>
     <row r="10" ht="12" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
